--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -55,187 +55,196 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>rice</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>long</t>
   </si>
   <si>
     <t>hot</t>
@@ -250,22 +259,13 @@
     <t>makes</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -698,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -748,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2558139534883721</v>
+        <v>0.310077519379845</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +824,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +850,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +876,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8591331269349846</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +902,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +928,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7532467532467533</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="M10">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,13 +954,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -980,13 +980,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7012987012987013</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L12">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1006,13 +1006,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1032,13 +1032,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6677966101694915</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1058,13 +1058,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1084,13 +1084,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6323529411764706</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1110,13 +1110,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6284109149277689</v>
+        <v>0.637239165329053</v>
       </c>
       <c r="L17">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="M17">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1136,13 +1136,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1162,13 +1162,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6228571428571429</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L19">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1188,13 +1188,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.609375</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1214,13 +1214,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1240,13 +1240,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5918367346938775</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1266,13 +1266,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5897435897435898</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1292,13 +1292,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1318,13 +1318,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1344,13 +1344,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5538461538461539</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1370,13 +1370,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1396,13 +1396,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1422,13 +1422,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5299145299145299</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1448,13 +1448,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.5096153846153846</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1474,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4910179640718563</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1500,13 +1500,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4901960784313725</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1526,13 +1526,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4819277108433735</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1552,13 +1552,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4661654135338346</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1578,13 +1578,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.459016393442623</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1604,13 +1604,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.45</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1630,13 +1630,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.4193548387096774</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1656,13 +1656,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.4074074074074074</v>
+        <v>0.41</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1682,13 +1682,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3968253968253968</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1708,13 +1708,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3947368421052632</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1734,13 +1734,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3915662650602409</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L41">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1760,13 +1760,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3357843137254902</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L42">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>271</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1786,13 +1786,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.3289473684210527</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>51</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1812,13 +1812,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.3151750972762646</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L44">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.3082706766917293</v>
+        <v>0.3190661478599222</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.3063063063063063</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1890,13 +1890,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2772277227722773</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1916,13 +1916,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2753424657534246</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L48">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>529</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1942,13 +1942,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.2685185185185185</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1968,13 +1968,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.2661870503597122</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1994,13 +1994,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.2476190476190476</v>
+        <v>0.2616438356164383</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>79</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2020,13 +2020,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.2440191387559809</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L52">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M52">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2046,13 +2046,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.240043057050592</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L53">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>706</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2072,13 +2072,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.2293577981651376</v>
+        <v>0.2260495156081808</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>84</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2124,13 +2124,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.2225705329153605</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L56">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M56">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2150,13 +2150,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.2214765100671141</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>116</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2176,13 +2176,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1769230769230769</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2202,13 +2202,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1668874172185431</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L59">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M59">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>629</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2228,13 +2228,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.1649616368286445</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L60">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>653</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2254,13 +2254,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.127147766323024</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="L61">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M61">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>254</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2280,13 +2280,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.1265206812652068</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L62">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>359</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2306,25 +2306,25 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.1182266009852217</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>179</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2332,7 +2332,7 @@
         <v>72</v>
       </c>
       <c r="K64">
-        <v>0.1136363636363636</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L64">
         <v>50</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2358,13 +2358,13 @@
         <v>73</v>
       </c>
       <c r="K65">
-        <v>0.1132075471698113</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>329</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2384,13 +2384,13 @@
         <v>74</v>
       </c>
       <c r="K66">
-        <v>0.1092436974789916</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M66">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2410,13 +2410,13 @@
         <v>75</v>
       </c>
       <c r="K67">
-        <v>0.1037037037037037</v>
+        <v>0.1113636363636364</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M67">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>242</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2436,25 +2436,25 @@
         <v>76</v>
       </c>
       <c r="K68">
-        <v>0.1008771929824561</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L68">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>410</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2462,7 +2462,7 @@
         <v>77</v>
       </c>
       <c r="K69">
-        <v>0.0959409594095941</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L69">
         <v>26</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2488,13 +2488,13 @@
         <v>78</v>
       </c>
       <c r="K70">
-        <v>0.09069212410501193</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L70">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>381</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2514,13 +2514,13 @@
         <v>79</v>
       </c>
       <c r="K71">
-        <v>0.06284153005464481</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>343</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2540,13 +2540,13 @@
         <v>80</v>
       </c>
       <c r="K72">
-        <v>0.06156716417910447</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L72">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1006</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2566,25 +2566,25 @@
         <v>81</v>
       </c>
       <c r="K73">
-        <v>0.05583756345177665</v>
+        <v>0.08034433285509325</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>372</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2592,13 +2592,13 @@
         <v>82</v>
       </c>
       <c r="K74">
-        <v>0.05444126074498568</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L74">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>660</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2618,13 +2618,13 @@
         <v>83</v>
       </c>
       <c r="K75">
-        <v>0.04797047970479705</v>
+        <v>0.05597014925373135</v>
       </c>
       <c r="L75">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="M75">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>516</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2644,25 +2644,25 @@
         <v>84</v>
       </c>
       <c r="K76">
-        <v>0.02335640138408305</v>
+        <v>0.03200692041522491</v>
       </c>
       <c r="L76">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N76">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1129</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
